--- a/src/Einkaufskalkulation.xlsx
+++ b/src/Einkaufskalkulation.xlsx
@@ -73,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -180,19 +180,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="double">
@@ -256,67 +243,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,305 +592,331 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6">
+      <c r="C4" s="23"/>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
+      <c r="C5" s="17"/>
+      <c r="D5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="4">
+        <f>D4*(1-D5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:F6" si="0">E4*(1-E5)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7">
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="4">
+        <f>D6*(1-D7)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E8" s="4">
+        <f t="shared" ref="E8:F8" si="1">E6*(1-E7)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0</v>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8">
+        <v>50</v>
+      </c>
+      <c r="E9" s="8">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
+      <c r="C10" s="15"/>
+      <c r="D10" s="4">
+        <f>D8+D9</f>
+        <v>50</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" ref="E10:F10" si="2">E8+E9</f>
+        <v>50</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25">
-        <v>0</v>
+      <c r="C11" s="17"/>
+      <c r="D11" s="26">
+        <v>0.19</v>
       </c>
       <c r="E11" s="26">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F11" s="26">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
+      <c r="C12" s="19"/>
+      <c r="D12" s="6">
+        <f>D10*(1+D11)</f>
+        <v>59.5</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" ref="E12:F12" si="3">E10*(1+E11)</f>
+        <v>59.5</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="3"/>
+        <v>59.5</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29">
+      <c r="C13" s="21"/>
+      <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
@@ -927,20 +933,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/src/Einkaufskalkulation.xlsx
+++ b/src/Einkaufskalkulation.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Anbieter</t>
-  </si>
-  <si>
-    <t>Anbieter A</t>
-  </si>
-  <si>
-    <t>Anbieter B</t>
-  </si>
-  <si>
-    <t>Anbieter C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Listeneinkaufspreis</t>
   </si>
@@ -66,6 +54,24 @@
   </si>
   <si>
     <t>Rangliste</t>
+  </si>
+  <si>
+    <t>Geräte</t>
+  </si>
+  <si>
+    <t>Sony Xperia Z SGP312</t>
+  </si>
+  <si>
+    <t>Acepad A121</t>
+  </si>
+  <si>
+    <t>Lenova YOGA Tablet</t>
+  </si>
+  <si>
+    <t>* Menge</t>
+  </si>
+  <si>
+    <t>=Listeneinkaufspreis (Summe)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,20 +272,20 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,15 +294,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,360 +584,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F31"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11"/>
+      <c r="B2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="22"/>
       <c r="D2" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26"/>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>154.9</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="26">
+      <c r="B5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="27">
+        <v>50</v>
+      </c>
+      <c r="E5" s="27">
+        <v>50</v>
+      </c>
+      <c r="F5" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="3">
+        <f>D4*D5</f>
+        <v>9995</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:F6" si="0">E4*E5</f>
+        <v>7745</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>7849.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="10">
         <v>0.05</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E7" s="10">
         <v>0.05</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F7" s="10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="4">
-        <f>D4*(1-D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:F6" si="0">E4*(1-E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0.03</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0.03</v>
-      </c>
-    </row>
     <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
       <c r="D8" s="4">
         <f>D6*(1-D7)</f>
-        <v>0</v>
+        <v>9495.25</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ref="E8:F8" si="1">E6*(1-E7)</f>
-        <v>0</v>
+        <v>7357.75</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7457.0249999999996</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="8">
-        <v>50</v>
-      </c>
-      <c r="E9" s="8">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8">
-        <v>50</v>
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="4">
-        <f>D8+D9</f>
-        <v>50</v>
+        <f>D8*(1-D9)</f>
+        <v>9210.3924999999999</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:F10" si="2">E8+E9</f>
-        <v>50</v>
+        <f t="shared" ref="E10:F10" si="2">E8*(1-E9)</f>
+        <v>7137.0174999999999</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="2"/>
+        <v>7233.3142499999994</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="8">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="26">
+      <c r="E11" s="8">
+        <v>50</v>
+      </c>
+      <c r="F11" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="4">
+        <f>D10+D11</f>
+        <v>9260.3924999999999</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" ref="E12:F12" si="3">E10+E11</f>
+        <v>7187.0174999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>7283.3142499999994</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10">
         <v>0.19</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E13" s="10">
         <v>0.19</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F13" s="10">
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="6">
-        <f>D10*(1+D11)</f>
-        <v>59.5</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" ref="E12:F12" si="3">E10*(1+E11)</f>
-        <v>59.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="3"/>
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="9">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="6">
+        <f>D12*(1+D13)</f>
+        <v>11019.867075</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" ref="E14:F14" si="4">E12*(1+E13)</f>
+        <v>8552.5508250000003</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>8667.1439574999986</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="F13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B9:C9"/>
+  <mergeCells count="32">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
